--- a/DBBuilder/util/metadata/files/metadata_phch_continue.xlsx
+++ b/DBBuilder/util/metadata/files/metadata_phch_continue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammaxwell/Documents/Pro/Acoustic/projects/SeinAcoustic_DataAnalysis/DBBuilder/util/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sammaxwell/Documents/Pro/Acoustic/projects/SeinAcoustic_DataAnalysis/DBBuilder/util/metadata/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF29239-738E-C644-9E31-603D3959C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081065C7-93D0-E14C-941D-340CB622EC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="820" windowWidth="14400" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="760" windowWidth="14400" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
